--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_013.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_013.xlsx
@@ -31,304 +31,313 @@
     <t>System</t>
   </si>
   <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295037EA1.17) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Rod worth minimizer</t>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
+  </si>
+  <si>
+    <t>(295037EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Bypassing rod insertion blocks</t>
+  </si>
+  <si>
+    <t>(700000AK2.10) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(600000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm reset panel</t>
+  </si>
+  <si>
+    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295038EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
+  </si>
+  <si>
+    <t>(295019AK2.20) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Control room ventilation</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
+  </si>
+  <si>
+    <t>(295024EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295006AK2.04) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Turbine trip logic</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
+  </si>
+  <si>
+    <t>(295009AK2.07) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295008AA2.05) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Swell</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Leak detection system</t>
+  </si>
+  <si>
+    <t>(500000EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen ignition/deflagration</t>
+  </si>
+  <si>
+    <t>(223002K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor building drainage system</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
+  </si>
+  <si>
+    <t>(203000K2.02) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(215003K4.06) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alarm seal-in</t>
+  </si>
+  <si>
+    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
+  </si>
+  <si>
+    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
+  </si>
+  <si>
+    <t>(218000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
+  </si>
+  <si>
+    <t>(215005K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) TIP</t>
+  </si>
+  <si>
+    <t>(211000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291003K1.10) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of air-operated valves, including failure modes</t>
+  </si>
+  <si>
+    <t>(510000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Ultimate heat sink temperature</t>
+  </si>
+  <si>
+    <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(264000K4.04) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Field flashing</t>
+  </si>
+  <si>
+    <t>(209002A4.16) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Emergency diesel generator operation</t>
+  </si>
+  <si>
+    <t>(400000A3.04) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(259002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
+  </si>
+  <si>
+    <t>(239002A2.03) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open SRV</t>
+  </si>
+  <si>
+    <t>(223002K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment atmosphere sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(212000A2.20) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Full RPS actuation </t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(288000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.7) Instrument air system</t>
+  </si>
+  <si>
+    <t>(219000A2.13) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(233000K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Backup fuel pool systems</t>
+  </si>
+  <si>
+    <t>(223001K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.5 / 45.3) Hydrogen production mechanisms</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
+  </si>
+  <si>
+    <t>(290003A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
+  </si>
+  <si>
+    <t>(286000K4.11) Knowledge of (SF8 FPS) FIRE PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.5 / 41.7 / 45.3 to 45.8) Alternate injection to the RPV or primary containment</t>
+  </si>
+  <si>
+    <t>(290002K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Plant radiation levels</t>
+  </si>
+  <si>
+    <t>(271000A3.06) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System differential pressure control</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292008K1.11) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Discuss the concept of the point of adding heat (POAH) and its impact on reactor power</t>
+  </si>
+  <si>
+    <t>(293006K1.12) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define pump shutoff head, pump runout, and axial thrust</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
   </si>
   <si>
-    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
-  </si>
-  <si>
-    <t>(295023AK2.11) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295025EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(295005AK2.11) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295012AA2.02) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
-  </si>
-  <si>
-    <t>(295036EK2.03) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
-  </si>
-  <si>
-    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
-  </si>
-  <si>
-    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
-  </si>
-  <si>
-    <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
-  </si>
-  <si>
-    <t>(262002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(259002A3.06) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level setpoint setdown following a reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(300000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Extraction steam system</t>
-  </si>
-  <si>
-    <t>(223002A4.04) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) System indicating lights and alarms</t>
-  </si>
-  <si>
-    <t>(215003K4.11) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM SCRAM signals</t>
-  </si>
-  <si>
-    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(400000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW temperature</t>
-  </si>
-  <si>
-    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
-  </si>
-  <si>
-    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) System initiation sequence </t>
-  </si>
-  <si>
-    <t>(211000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
-  </si>
-  <si>
-    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
-  </si>
-  <si>
-    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
-  </si>
-  <si>
-    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291007K1.09) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effects of demineralizer operation on water conductivity</t>
-  </si>
-  <si>
-    <t>(218000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
-  </si>
-  <si>
-    <t>(290001K3.03) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(239003A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Dilution air flow</t>
-  </si>
-  <si>
-    <t>(204000K2.01) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(201001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Differential pressure indication</t>
-  </si>
-  <si>
-    <t>(259001A2.02) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Feedwater heater isolation</t>
-  </si>
-  <si>
-    <t>(223001K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Containment hardened vent</t>
-  </si>
-  <si>
-    <t>(290003A3.02) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(288000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Standby gas treatment system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
-  </si>
-  <si>
-    <t>(215001K4.01) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Primary containment isolation (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
-  </si>
-  <si>
-    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(293009K1.15) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Describe conditions under which radiative heat</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293008K1.19) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define core inlet subcooling</t>
-  </si>
-  <si>
-    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295011AA2.02) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(215003A2.01) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A2.08) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condenser vacuum </t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level </t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(245000A2.05) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Generator trip </t>
+  </si>
+  <si>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
@@ -337,33 +346,24 @@
     <t>K2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295012</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295011</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
     <t>295010</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>290001</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>510001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>202002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D28" t="s">
         <v>107</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
         <v>110</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
         <v>107</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="s">
         <v>107</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
         <v>110</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
         <v>107</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>3.2</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="s">
         <v>110</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
         <v>110</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D82" t="s">
         <v>110</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>110</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
         <v>110</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="s">
         <v>110</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D92" t="s">
         <v>110</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="s">
         <v>110</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
